--- a/experimentos.xlsx
+++ b/experimentos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="54">
   <si>
     <t>TRANSFORMACIONES</t>
   </si>
@@ -211,6 +211,29 @@
 Variables estandaridadas con minmaxscaler.
 Eliminación de variables con correlación superior a 0.95.
 Creación de variables MEDIAN_FLOOR, MAX_FLOOR_YEAR, MIN_FLOOR_YEAR, MEDIAN_FLOOR_YEAR</t>
+  </si>
+  <si>
+    <t>eta=0.1,
+objective='multi:softmax',               num_class=len(y_train.unique(),
+min_child_weight=5)</t>
+  </si>
+  <si>
+    <t>sample_weight en fit().
+Eliminación de variables con correlación superior a 0.95.
+Creación de variables AREA_PER_FLOOR,
+DIST</t>
+  </si>
+  <si>
+    <t>eta=0.1,
+objective='multi:softmax',               num_class=len(y_train.unique(),
+min_child_weight=20)</t>
+  </si>
+  <si>
+    <t>sample_weight en fit().
+Eliminación de variables con correlación superior a 0.95.
+Creación de variables AREA_PER_FLOOR,
+DIST,
+DIST_GROUP</t>
   </si>
 </sst>
 </file>
@@ -287,8 +310,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:K39" totalsRowShown="0">
-  <autoFilter ref="B2:K39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:K42" totalsRowShown="0">
+  <autoFilter ref="B2:K42"/>
   <sortState ref="B13:K30">
     <sortCondition ref="E2:E30"/>
   </sortState>
@@ -571,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K39"/>
+  <dimension ref="B2:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1703,12 +1726,111 @@
         <v>23</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="H39">
+        <v>0.5</v>
+      </c>
+      <c r="I39">
+        <v>0.88</v>
+      </c>
+      <c r="J39">
+        <v>0.5</v>
+      </c>
+      <c r="K39">
+        <v>65.680000000000007</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="H40">
+        <v>0.5</v>
+      </c>
+      <c r="I40">
+        <v>0.88</v>
+      </c>
+      <c r="J40">
+        <v>0.5</v>
+      </c>
+      <c r="K40">
+        <v>60.2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="H41">
+        <v>0.49</v>
+      </c>
+      <c r="I41">
+        <v>0.87</v>
+      </c>
+      <c r="J41">
+        <v>0.47</v>
+      </c>
+      <c r="K41">
+        <v>55.84</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
